--- a/data/trans_dic/P6907S1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.06079481527531959</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0455070906853195</v>
+        <v>0.04550709068531951</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.08016854594512395</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0585605943960163</v>
+        <v>0.05856059439601628</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.07145151016519931</v>
@@ -708,19 +708,19 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03368134741779902</v>
+        <v>0.03227114232433491</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01805801560183898</v>
+        <v>0.01776847826365032</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02228971146564252</v>
+        <v>0.02295151116831236</v>
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="inlineStr"/>
@@ -728,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03806960499032133</v>
+        <v>0.03831985994238361</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01339363684521248</v>
+        <v>0.0133988058076102</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01397100751702313</v>
+        <v>0.01282743282521378</v>
       </c>
     </row>
     <row r="6">
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1313892026624913</v>
+        <v>0.1328422696173539</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2005460668329915</v>
+        <v>0.1983141082744877</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1771808125540999</v>
+        <v>0.1523683182885542</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1443411476747956</v>
+        <v>0.1304042654828835</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.206280984806659</v>
+        <v>0.2119075560593178</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.1814597329167528</v>
+        <v>0.1786488376387029</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1196245283916301</v>
+        <v>0.1215727189280901</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1349073242397122</v>
+        <v>0.1181848181679502</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1191678700707215</v>
+        <v>0.1229746426338922</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1329513949841713</v>
+        <v>0.1148668343146302</v>
       </c>
     </row>
     <row r="7">
@@ -801,7 +801,7 @@
         <v>0.030625224497585</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.091635326213705</v>
+        <v>0.09163532621370502</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.0845867024964654</v>
@@ -825,7 +825,7 @@
         <v>0.02522899434031865</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.08654628792126656</v>
+        <v>0.08654628792126655</v>
       </c>
     </row>
     <row r="8">
@@ -836,38 +836,38 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05953503840166091</v>
+        <v>0.05883538607037277</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.022509752903394</v>
+        <v>0.0216455548087529</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01304598607838333</v>
+        <v>0.01272542597773525</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05799664300927334</v>
+        <v>0.05966402719609811</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04279812591041968</v>
+        <v>0.04302565480001176</v>
       </c>
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05231820142216843</v>
+        <v>0.05408962384364548</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06340067794427959</v>
+        <v>0.06281582327831808</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01367783240034757</v>
+        <v>0.01308651368256051</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01140665439098996</v>
+        <v>0.01170139539495051</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0635934150531362</v>
+        <v>0.06404191984419824</v>
       </c>
     </row>
     <row r="9">
@@ -878,38 +878,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.133631514930337</v>
+        <v>0.1334112683838701</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.125252763448341</v>
+        <v>0.1266570807321645</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06183332903369648</v>
+        <v>0.05724375646507221</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1383673599744374</v>
+        <v>0.1384825307755158</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1440861912790378</v>
+        <v>0.1451080514631351</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.05520199742439992</v>
+        <v>0.04872371024771406</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.117185522305805</v>
+        <v>0.1175694620586333</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1250105062273211</v>
+        <v>0.1224681215038141</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07486414695460238</v>
+        <v>0.07545533023501211</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04569447296981701</v>
+        <v>0.04441534247012607</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1134481752379094</v>
+        <v>0.1128012176322117</v>
       </c>
     </row>
     <row r="10">
@@ -968,38 +968,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06630422481962545</v>
+        <v>0.05827485220500821</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08146772171479562</v>
+        <v>0.09048883848571522</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08367728962871258</v>
+        <v>0.08051157317851923</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05871559604429966</v>
+        <v>0.05885070311279104</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01256662215921136</v>
+        <v>0.01292211599234949</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07668367528434616</v>
+        <v>0.07068683834795141</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09015290329414259</v>
+        <v>0.09202470129668461</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02656713118729785</v>
+        <v>0.02710805348648817</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01349491712534246</v>
+        <v>0.01366406034511167</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09855503231324521</v>
+        <v>0.09628617108070391</v>
       </c>
     </row>
     <row r="12">
@@ -1010,38 +1010,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2311296846194527</v>
+        <v>0.2295063774896738</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.1007684483793943</v>
+        <v>0.09141700485205678</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3145833502097545</v>
+        <v>0.3143874450015082</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2807998181441922</v>
+        <v>0.2614076463790377</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4620209955896654</v>
+        <v>0.4950812871493523</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1300644189536712</v>
+        <v>0.1222613755304552</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.218693112057322</v>
+        <v>0.2144402656057135</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2123906973828749</v>
+        <v>0.2174657758179264</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2163431816145307</v>
+        <v>0.2156885178529849</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.082989164809777</v>
+        <v>0.08428582001691956</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.217528906533884</v>
+        <v>0.2231057228433979</v>
       </c>
     </row>
     <row r="13">
@@ -1065,7 +1065,7 @@
         <v>0.03520801973458621</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1039686751932738</v>
+        <v>0.1039686751932737</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1073289172997801</v>
@@ -1100,40 +1100,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06913572457270538</v>
+        <v>0.06721882422434443</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02726088378649663</v>
+        <v>0.02646766334132671</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01747915270889484</v>
+        <v>0.0176229105038713</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07264166490930453</v>
+        <v>0.07207522670930741</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07155843227762516</v>
+        <v>0.074898073833478</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.008967359125121237</v>
+        <v>0.00029510510445514</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.008903274207891901</v>
+        <v>0.008716335414728993</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06539248520709495</v>
+        <v>0.06737044946981442</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07582522091171168</v>
+        <v>0.0753868709165062</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02353232510261353</v>
+        <v>0.02331544189016896</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01854364667811971</v>
+        <v>0.01833557093096687</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07795310973571258</v>
+        <v>0.07780141615458831</v>
       </c>
     </row>
     <row r="15">
@@ -1144,40 +1144,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1269570171588757</v>
+        <v>0.1228715741606439</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1063297267122749</v>
+        <v>0.1005730843511929</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05778985657878859</v>
+        <v>0.06051862717208015</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1444698956759914</v>
+        <v>0.1507363274604522</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1528638663928821</v>
+        <v>0.1551129796159994</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07968909856953987</v>
+        <v>0.08431024124503823</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.054498297357329</v>
+        <v>0.05589473092014268</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1248584204006505</v>
+        <v>0.1220508901810559</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1241875076940045</v>
+        <v>0.1210518082130286</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07524345528342215</v>
+        <v>0.0725616077773812</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0477060499502651</v>
+        <v>0.04898823360161667</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1277628142987661</v>
+        <v>0.1251753786496982</v>
       </c>
     </row>
     <row r="16">
@@ -1447,19 +1447,19 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3721</v>
+        <v>3565</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1004</v>
+        <v>988</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>837</v>
+        <v>862</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5636</v>
+        <v>5673</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>986</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>822</v>
+        <v>755</v>
       </c>
     </row>
     <row r="7">
@@ -1487,36 +1487,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14514</v>
+        <v>14674</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6257</v>
+        <v>6187</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9848</v>
+        <v>8469</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5127</v>
+        <v>4632</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7750</v>
+        <v>7961</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>4236</v>
+        <v>4171</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>17708</v>
+        <v>17997</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>7120</v>
+        <v>6237</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>8771</v>
+        <v>9052</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>7826</v>
+        <v>6762</v>
       </c>
     </row>
     <row r="8">
@@ -1619,38 +1619,38 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>17083</v>
+        <v>16883</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2102</v>
+        <v>2021</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2980</v>
+        <v>2907</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15522</v>
+        <v>15968</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5075</v>
+        <v>5102</v>
       </c>
       <c r="H10" s="6" t="inlineStr"/>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11482</v>
+        <v>11870</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>25710</v>
+        <v>25473</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2155</v>
+        <v>2062</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>4027</v>
+        <v>4131</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>30976</v>
+        <v>31195</v>
       </c>
     </row>
     <row r="11">
@@ -1661,38 +1661,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>38345</v>
+        <v>38282</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11697</v>
+        <v>11828</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14125</v>
+        <v>13077</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>37033</v>
+        <v>37063</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17084</v>
+        <v>17206</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>6876</v>
+        <v>6069</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>25717</v>
+        <v>25801</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>50694</v>
+        <v>49663</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>11797</v>
+        <v>11890</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>16130</v>
+        <v>15679</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>55260</v>
+        <v>54945</v>
       </c>
     </row>
     <row r="12">
@@ -1795,38 +1795,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4911</v>
+        <v>4317</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6264</v>
+        <v>6958</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5354</v>
+        <v>5151</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>926</v>
+        <v>952</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7590</v>
+        <v>6997</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12446</v>
+        <v>12705</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>860</v>
+        <v>878</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1839</v>
+        <v>1862</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>17333</v>
+        <v>16934</v>
       </c>
     </row>
     <row r="15">
@@ -1837,38 +1837,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17121</v>
+        <v>17001</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>6308</v>
+        <v>5722</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24188</v>
+        <v>24173</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17966</v>
+        <v>16726</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6646</v>
+        <v>7122</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9587</v>
+        <v>9012</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>21646</v>
+        <v>21225</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>29322</v>
+        <v>30023</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>7005</v>
+        <v>6984</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11312</v>
+        <v>11488</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>38257</v>
+        <v>39237</v>
       </c>
     </row>
     <row r="16">
@@ -1971,40 +1971,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>32596</v>
+        <v>31693</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3887</v>
+        <v>3774</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6058</v>
+        <v>6108</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>27607</v>
+        <v>27392</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>15752</v>
+        <v>16487</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>898</v>
+        <v>30</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1926</v>
+        <v>1885</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>22350</v>
+        <v>23026</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>52441</v>
+        <v>52138</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>5712</v>
+        <v>5660</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>10438</v>
+        <v>10321</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>56269</v>
+        <v>56159</v>
       </c>
     </row>
     <row r="19">
@@ -2015,40 +2015,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>59858</v>
+        <v>57932</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15160</v>
+        <v>14339</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>20031</v>
+        <v>20976</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>54905</v>
+        <v>57287</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>33649</v>
+        <v>34144</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7982</v>
+        <v>8445</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>11788</v>
+        <v>12090</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>42674</v>
+        <v>41715</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>85889</v>
+        <v>83720</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>18264</v>
+        <v>17613</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>26854</v>
+        <v>27576</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>92223</v>
+        <v>90355</v>
       </c>
     </row>
     <row r="20">
